--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-10.43027698028729</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.87075542960686</v>
+        <v>-12.57206173694826</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73046149227496</v>
+        <v>2.510353332244016</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.60229064828196</v>
+        <v>-14.69147065879022</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.5276464612012</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.42600971749612</v>
+        <v>-13.1557798228167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.615838726280139</v>
+        <v>2.519353993886007</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.53402544539922</v>
+        <v>-14.44901991925304</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.64858991220815</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.89442057640838</v>
+        <v>-13.47292969827347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7648312105493721</v>
+        <v>2.487047436509433</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49596941594716</v>
+        <v>-14.13692527689666</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.75297480734961</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.28565846192638</v>
+        <v>-14.04662532006474</v>
       </c>
       <c r="F5" t="n">
-        <v>1.038209807526655</v>
+        <v>2.765183037168224</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.31889447623437</v>
+        <v>-13.66173336545999</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.81400866044549</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.76578338129176</v>
+        <v>-14.56815034957916</v>
       </c>
       <c r="F6" t="n">
-        <v>1.064669112690399</v>
+        <v>2.836230084958232</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.05335295726475</v>
+        <v>-13.4203190953786</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.79373413818827</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.43438440438358</v>
+        <v>-15.33682934323673</v>
       </c>
       <c r="F7" t="n">
-        <v>1.176250916413999</v>
+        <v>2.848310820926379</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.56694566407538</v>
+        <v>-12.72119600241663</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.66738993063341</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.98321942625659</v>
+        <v>-16.12254163681863</v>
       </c>
       <c r="F8" t="n">
-        <v>1.277614695785746</v>
+        <v>3.114825252262513</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.416232249388992</v>
+        <v>-12.37813927957207</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.41510502855715</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.51587183540011</v>
+        <v>-16.65019259193729</v>
       </c>
       <c r="F9" t="n">
-        <v>1.609773822323948</v>
+        <v>3.375379984227878</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.536712045610377</v>
+        <v>-12.62855421129546</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.0272943851846</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.18063987710826</v>
+        <v>-17.41213942313912</v>
       </c>
       <c r="F10" t="n">
-        <v>1.918015927269202</v>
+        <v>3.679300207102779</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.208312565352834</v>
+        <v>-12.19415128414946</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.51585352738687</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.88643646444357</v>
+        <v>-18.180256181007</v>
       </c>
       <c r="F11" t="n">
-        <v>1.833954343199466</v>
+        <v>3.57362921268128</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.823958401503448</v>
+        <v>-11.75258107293657</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.902603280364049</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.68683044564682</v>
+        <v>-19.27997960763711</v>
       </c>
       <c r="F12" t="n">
-        <v>2.266445668660496</v>
+        <v>4.130418648726756</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.500892827737708</v>
+        <v>-11.4347369585047</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.222833169296241</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.50216034282849</v>
+        <v>-20.12099634689755</v>
       </c>
       <c r="F13" t="n">
-        <v>2.858357730037889</v>
+        <v>4.577293432390249</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.370679018844296</v>
+        <v>-11.1820046375264</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.53185025588192</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.43738824441439</v>
+        <v>-21.32585786620067</v>
       </c>
       <c r="F14" t="n">
-        <v>3.090864229607763</v>
+        <v>4.7666837804008</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.827109457366958</v>
+        <v>-10.76879066614161</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.880556472709208</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.91420819513774</v>
+        <v>-21.78730677933444</v>
       </c>
       <c r="F15" t="n">
-        <v>3.462032741937079</v>
+        <v>5.104059477266</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.504332335006366</v>
+        <v>-10.26801458177038</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.326465452930594</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.98881190448564</v>
+        <v>-23.01967874027769</v>
       </c>
       <c r="F16" t="n">
-        <v>3.737850953340953</v>
+        <v>5.224441493350048</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.215944486947654</v>
+        <v>-10.17458566054364</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.913875654116408</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.04088218118394</v>
+        <v>-24.20380109245136</v>
       </c>
       <c r="F17" t="n">
-        <v>3.93273165606305</v>
+        <v>5.646973911823172</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.880739509131364</v>
+        <v>-9.662423079179362</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.673973967812842</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.75326914977585</v>
+        <v>-24.92391758089986</v>
       </c>
       <c r="F18" t="n">
-        <v>4.321363700920986</v>
+        <v>5.991311554466859</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.727126913372897</v>
+        <v>-9.467170811935379</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.625590186004163</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.57251269695448</v>
+        <v>-25.78238318566833</v>
       </c>
       <c r="F19" t="n">
-        <v>4.535326197444651</v>
+        <v>6.181058799978694</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.265712223287197</v>
+        <v>-8.876402778164845</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.761316528268686</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.30501303979688</v>
+        <v>-26.6095640354954</v>
       </c>
       <c r="F20" t="n">
-        <v>4.804588250639992</v>
+        <v>6.427562526208546</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.082682473210503</v>
+        <v>-8.533737175869643</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.060906534679986</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.98470233046287</v>
+        <v>-27.33767160566788</v>
       </c>
       <c r="F21" t="n">
-        <v>5.217259542262549</v>
+        <v>6.803145811738686</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.942602648459656</v>
+        <v>-8.363521512791133</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.495181061499452</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.32025198326327</v>
+        <v>-27.68105833647595</v>
       </c>
       <c r="F22" t="n">
-        <v>5.230958539503645</v>
+        <v>6.823870311847538</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.795379984676246</v>
+        <v>-8.053837150820138</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.018932301077255</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.92384143754229</v>
+        <v>-28.20129755718436</v>
       </c>
       <c r="F23" t="n">
-        <v>5.336233524368924</v>
+        <v>6.963441679884227</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.45425930855099</v>
+        <v>-7.551169020791411</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.586758779870182</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.31970921256326</v>
+        <v>-28.63893211786939</v>
       </c>
       <c r="F24" t="n">
-        <v>5.548074191912349</v>
+        <v>7.208126695559586</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.331696795404298</v>
+        <v>-7.453711557906328</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.144613248600731</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.5082439843721</v>
+        <v>-28.79015398926994</v>
       </c>
       <c r="F25" t="n">
-        <v>5.450235386491647</v>
+        <v>7.060640025405363</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.191563191577915</v>
+        <v>-7.221850407242887</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.643812453621484</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.47045440579429</v>
+        <v>-28.89305780580476</v>
       </c>
       <c r="F26" t="n">
-        <v>5.373062413097395</v>
+        <v>7.007662746995472</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.174285441310237</v>
+        <v>-7.06923516888527</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.043020960691031</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.6874529755823</v>
+        <v>-29.01204645493174</v>
       </c>
       <c r="F27" t="n">
-        <v>5.325111033746693</v>
+        <v>6.957736208870537</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.853996823444906</v>
+        <v>-6.794683210259928</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.304481756369194</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.43364018408641</v>
+        <v>-28.76942948916108</v>
       </c>
       <c r="F28" t="n">
-        <v>5.277624110048348</v>
+        <v>6.868863842043757</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.966898659022573</v>
+        <v>-6.856152693597649</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.403937532432609</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.41202832923122</v>
+        <v>-28.77939817416273</v>
       </c>
       <c r="F29" t="n">
-        <v>5.093606780584536</v>
+        <v>6.49275254377199</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.664044239644659</v>
+        <v>-6.500477444029586</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.331980278383726</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.46944238137283</v>
+        <v>-28.69316587104408</v>
       </c>
       <c r="F30" t="n">
-        <v>4.925009378778975</v>
+        <v>6.425949153942464</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.805541876386911</v>
+        <v>-6.80916444859973</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.089527089486653</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.23556207087336</v>
+        <v>-28.44442542417261</v>
       </c>
       <c r="F31" t="n">
-        <v>4.900006997661571</v>
+        <v>6.460499765470952</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.664777590674697</v>
+        <v>-6.58574661279545</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.694157136327998</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.10977036869107</v>
+        <v>-28.456699275912</v>
       </c>
       <c r="F32" t="n">
-        <v>4.674775340309666</v>
+        <v>6.194660017082452</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.635262656219131</v>
+        <v>-6.564557657034241</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.173121311858777</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.69235185140074</v>
+        <v>-28.06232998149574</v>
       </c>
       <c r="F33" t="n">
-        <v>4.710997992186639</v>
+        <v>6.271446758934218</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.49371612940821</v>
+        <v>-6.459717793780117</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.561962629382196</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.35600284597759</v>
+        <v>-27.71397601971088</v>
       </c>
       <c r="F34" t="n">
-        <v>4.482515145268236</v>
+        <v>6.089409477251507</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.405616225666402</v>
+        <v>-6.428604154079069</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.906574773241357</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.95433915331589</v>
+        <v>-27.28525411854424</v>
       </c>
       <c r="F35" t="n">
-        <v>4.598418831062189</v>
+        <v>6.256334838708584</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.420645032775298</v>
+        <v>-6.584881258580007</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.248255369186955</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.64910867660066</v>
+        <v>-26.89161573065459</v>
       </c>
       <c r="F36" t="n">
-        <v>4.586738993657129</v>
+        <v>6.26841557467673</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.384412602884592</v>
+        <v>-6.655967418424949</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.625610732863825</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.24415712682096</v>
+        <v>-26.54451335462766</v>
       </c>
       <c r="F37" t="n">
-        <v>4.643167910915062</v>
+        <v>6.260006482865637</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.293349960981434</v>
+        <v>-6.404398681080974</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.077078152546205</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.74677890222223</v>
+        <v>-25.98779969818862</v>
       </c>
       <c r="F38" t="n">
-        <v>4.491545140951428</v>
+        <v>6.104457840387871</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.318337675078237</v>
+        <v>-6.355308163130281</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.626316161560622</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.21128598008904</v>
+        <v>-25.44793111490954</v>
       </c>
       <c r="F39" t="n">
-        <v>4.390186250586547</v>
+        <v>5.90370544041861</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.208085681222437</v>
+        <v>-6.363228354254683</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.294064749524293</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.82889719700015</v>
+        <v>-25.11579643340567</v>
       </c>
       <c r="F40" t="n">
-        <v>4.344390923264155</v>
+        <v>5.864583607469556</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.170968341088819</v>
+        <v>-6.306432761481732</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.087393306344608</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.42181404022648</v>
+        <v>-24.80072927487421</v>
       </c>
       <c r="F41" t="n">
-        <v>4.317354715290115</v>
+        <v>5.845262252331508</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.237918401124352</v>
+        <v>-6.466728629627273</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.003528564066897</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.79890567531285</v>
+        <v>-24.17246255843443</v>
       </c>
       <c r="F42" t="n">
-        <v>4.163707896483579</v>
+        <v>5.751755106994893</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.109225073366551</v>
+        <v>-6.370400527328448</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.038117512704171</v>
       </c>
       <c r="E43" t="n">
-        <v>-24.3523926781575</v>
+        <v>-23.7431930884987</v>
       </c>
       <c r="F43" t="n">
-        <v>4.08397797249793</v>
+        <v>5.722054390278385</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.037102444065821</v>
+        <v>-6.325402108125362</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.17331633394254</v>
       </c>
       <c r="E44" t="n">
-        <v>-23.63249619501801</v>
+        <v>-22.94148885345512</v>
       </c>
       <c r="F44" t="n">
-        <v>4.152458291682808</v>
+        <v>5.773442741456527</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.119902664363893</v>
+        <v>-6.294904483289547</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.389925667919002</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.04594248516676</v>
+        <v>-22.29415012122751</v>
       </c>
       <c r="F45" t="n">
-        <v>4.126888785768843</v>
+        <v>5.781309153505394</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.985435419496264</v>
+        <v>-6.230100697268589</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.666647003643815</v>
       </c>
       <c r="E46" t="n">
-        <v>-22.49471673893583</v>
+        <v>-21.63774717026865</v>
       </c>
       <c r="F46" t="n">
-        <v>4.065292188252581</v>
+        <v>5.62404446961734</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.92819981610529</v>
+        <v>-5.999002231676386</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.97846411065002</v>
       </c>
       <c r="E47" t="n">
-        <v>-22.17357743387566</v>
+        <v>-21.453099158919</v>
       </c>
       <c r="F47" t="n">
-        <v>4.112500438559512</v>
+        <v>5.77729038986079</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.050688994148977</v>
+        <v>-6.3622505528813</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.305022524191751</v>
       </c>
       <c r="E48" t="n">
-        <v>-21.74305148917513</v>
+        <v>-20.73118840495034</v>
       </c>
       <c r="F48" t="n">
-        <v>4.018010602842647</v>
+        <v>5.686525977376514</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.964808699524749</v>
+        <v>-6.227685527876333</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.622317598867811</v>
       </c>
       <c r="E49" t="n">
-        <v>-20.96238465067988</v>
+        <v>-20.10643688444788</v>
       </c>
       <c r="F49" t="n">
-        <v>4.064656617359883</v>
+        <v>5.726327382280068</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.200903730134939</v>
+        <v>-6.409986815929858</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.91468432839841</v>
       </c>
       <c r="E50" t="n">
-        <v>-20.64518099614757</v>
+        <v>-19.713614960705</v>
       </c>
       <c r="F50" t="n">
-        <v>3.884848722808484</v>
+        <v>5.457055551070994</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.390465193385833</v>
+        <v>-6.774208049501287</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.170491436204189</v>
       </c>
       <c r="E51" t="n">
-        <v>-20.16717301675557</v>
+        <v>-19.15504592615996</v>
       </c>
       <c r="F51" t="n">
-        <v>3.915317013603099</v>
+        <v>5.495952489704169</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.23636858594754</v>
+        <v>-6.653102460400937</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.379167056705149</v>
       </c>
       <c r="E52" t="n">
-        <v>-19.66910055318174</v>
+        <v>-18.50922767506797</v>
       </c>
       <c r="F52" t="n">
-        <v>3.894010721677083</v>
+        <v>5.51671121286109</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.396092440289651</v>
+        <v>-6.951532328564292</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.539451955362153</v>
       </c>
       <c r="E53" t="n">
-        <v>-19.36355718002702</v>
+        <v>-18.30630944505666</v>
       </c>
       <c r="F53" t="n">
-        <v>4.077382702234462</v>
+        <v>5.676259062955992</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.512577917900767</v>
+        <v>-7.156816837899185</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.650120569384091</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.00117421303755</v>
+        <v>-17.83865149320191</v>
       </c>
       <c r="F54" t="n">
-        <v>4.041076937240752</v>
+        <v>5.702121909281972</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.478115308495884</v>
+        <v>-7.264643884348994</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.716653801657547</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.53408338597936</v>
+        <v>-17.41727776935625</v>
       </c>
       <c r="F55" t="n">
-        <v>4.015482986292452</v>
+        <v>5.627994787165807</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.855043070914426</v>
+        <v>-7.658443609465259</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.749747092503419</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.12965007092756</v>
+        <v>-17.00664030459033</v>
       </c>
       <c r="F56" t="n">
-        <v>3.895071636167204</v>
+        <v>5.584067060466577</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.99645759453994</v>
+        <v>-8.02931878138256</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.756484507091686</v>
       </c>
       <c r="E57" t="n">
-        <v>-17.87894179879216</v>
+        <v>-16.74616379673483</v>
       </c>
       <c r="F57" t="n">
-        <v>3.979592786882429</v>
+        <v>5.65515322031152</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.141656209480447</v>
+        <v>-8.249788546046089</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.75015870764947</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.4747382670631</v>
+        <v>-16.34390608973881</v>
       </c>
       <c r="F58" t="n">
-        <v>3.670803113168081</v>
+        <v>5.388056997158223</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.468916551138</v>
+        <v>-8.64191623081387</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.743700943830135</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.27479255322688</v>
+        <v>-16.11523257155259</v>
       </c>
       <c r="F59" t="n">
-        <v>3.872215529064376</v>
+        <v>5.623736462184725</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.319117380735726</v>
+        <v>-8.532167804665363</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.744557403470671</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.91833506256011</v>
+        <v>-15.64234338235024</v>
       </c>
       <c r="F60" t="n">
-        <v>3.755866943645534</v>
+        <v>5.424132978829189</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.678146489014492</v>
+        <v>-8.917401989750793</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.762294017444852</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.59002847343304</v>
+        <v>-15.27701234422002</v>
       </c>
       <c r="F61" t="n">
-        <v>3.734443315554713</v>
+        <v>5.297473477928023</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.759436006190687</v>
+        <v>-9.009026867443646</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.79981913071841</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.44059108953892</v>
+        <v>-15.10176589307546</v>
       </c>
       <c r="F62" t="n">
-        <v>3.66697013178442</v>
+        <v>5.36982100154463</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.791415000107178</v>
+        <v>-9.200690603647313</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.858517047477317</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.10960043564191</v>
+        <v>-14.87766848531668</v>
       </c>
       <c r="F63" t="n">
-        <v>3.696758850624533</v>
+        <v>5.42365385615623</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.739136849679256</v>
+        <v>-9.064189531923049</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.939891266848927</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.27700980877881</v>
+        <v>-15.12022189399806</v>
       </c>
       <c r="F64" t="n">
-        <v>3.504674659830311</v>
+        <v>5.235754655240088</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.942143081814166</v>
+        <v>-9.368803993773051</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.037290289217729</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.03642178085792</v>
+        <v>-14.82656369653682</v>
       </c>
       <c r="F65" t="n">
-        <v>3.673076501361197</v>
+        <v>5.467826033198807</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.7209546331412</v>
+        <v>-9.191973504403604</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.146161555527767</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.92720625645791</v>
+        <v>-14.80245111466919</v>
       </c>
       <c r="F66" t="n">
-        <v>3.602498798230413</v>
+        <v>5.352274355899272</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.99105759551765</v>
+        <v>-9.512584796722152</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.262827813161422</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.8869843969638</v>
+        <v>-14.83159448460287</v>
       </c>
       <c r="F67" t="n">
-        <v>3.450323570490818</v>
+        <v>5.136586039951585</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.015688412113168</v>
+        <v>-9.549076343976806</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.377724864270863</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.72647341251612</v>
+        <v>-14.6898035074486</v>
       </c>
       <c r="F68" t="n">
-        <v>3.463831896464104</v>
+        <v>5.231383883101066</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.018328475821301</v>
+        <v>-9.539630782709926</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.48578194321626</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.91624999206915</v>
+        <v>-15.0441587251626</v>
       </c>
       <c r="F69" t="n">
-        <v>3.575413700187704</v>
+        <v>5.350079191816028</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.769654030542539</v>
+        <v>-9.24367475202123</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.578930129372462</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.84668431335982</v>
+        <v>-14.89508801678349</v>
       </c>
       <c r="F70" t="n">
-        <v>3.416217858587219</v>
+        <v>5.365034663821921</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.900024287655693</v>
+        <v>-9.304024652786428</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.650733668929166</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.83398756252644</v>
+        <v>-15.08000981251769</v>
       </c>
       <c r="F71" t="n">
-        <v>3.39864187890066</v>
+        <v>5.272431984755684</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.680224316932931</v>
+        <v>-9.130098233495929</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.698356708743866</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.88154293232092</v>
+        <v>-15.1760445744045</v>
       </c>
       <c r="F72" t="n">
-        <v>3.407539871398445</v>
+        <v>5.348930275202303</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.733607382912775</v>
+        <v>-9.291983028873217</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.714664115861927</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.94001545444923</v>
+        <v>-15.38946439116594</v>
       </c>
       <c r="F73" t="n">
-        <v>3.304103153115125</v>
+        <v>5.340418514247004</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.747042373783057</v>
+        <v>-9.377477091954958</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.696695466478244</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.08172820749362</v>
+        <v>-15.5673411280049</v>
       </c>
       <c r="F74" t="n">
-        <v>3.364389496791054</v>
+        <v>5.352714366517294</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.427105764412143</v>
+        <v>-9.150861845659715</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.646745443496135</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.37884293280978</v>
+        <v>-15.92546577001329</v>
       </c>
       <c r="F75" t="n">
-        <v>3.325223662780198</v>
+        <v>5.333749908880532</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.399262870305063</v>
+        <v>-9.106987898036021</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.564052951110506</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.49085496913767</v>
+        <v>-16.12029758266672</v>
       </c>
       <c r="F76" t="n">
-        <v>3.289680582857726</v>
+        <v>5.367092935712892</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.313411909722037</v>
+        <v>-9.138355766094147</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.454174388575696</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.77427558621959</v>
+        <v>-16.52509268422667</v>
       </c>
       <c r="F77" t="n">
-        <v>3.226705285404995</v>
+        <v>5.422778723927053</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.188287556977082</v>
+        <v>-8.945816897661302</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.321923772324765</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.2523128996528</v>
+        <v>-17.01943972456791</v>
       </c>
       <c r="F78" t="n">
-        <v>3.113094543831625</v>
+        <v>5.347835137664114</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.863285936492044</v>
+        <v>-8.680475827973227</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.173829992184707</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.48184199404073</v>
+        <v>-17.15812129335482</v>
       </c>
       <c r="F79" t="n">
-        <v>3.162595738359139</v>
+        <v>5.446534408293393</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.779718142115867</v>
+        <v>-8.552999862925288</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.021177622493521</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.90001341838856</v>
+        <v>-17.60268357677026</v>
       </c>
       <c r="F80" t="n">
-        <v>3.002891440044495</v>
+        <v>5.328132439990446</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.456760126501199</v>
+        <v>-8.369886999731856</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.870352466901522</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.78590635168042</v>
+        <v>-18.46471815655157</v>
       </c>
       <c r="F81" t="n">
-        <v>2.981638927194016</v>
+        <v>5.389953931822586</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.162275686879444</v>
+        <v>-7.951808466514491</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.73064036075028</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.33761610959117</v>
+        <v>-19.14902266969992</v>
       </c>
       <c r="F82" t="n">
-        <v>2.958406366562436</v>
+        <v>5.368725864006441</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.058584740239045</v>
+        <v>-7.869414033786373</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.614957731276681</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.96348721266615</v>
+        <v>-19.77757294853798</v>
       </c>
       <c r="F83" t="n">
-        <v>2.768043106185369</v>
+        <v>5.277042318231185</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.738188564222641</v>
+        <v>-7.724616317408953</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.530002320706867</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.07416690368503</v>
+        <v>-20.9253797577042</v>
       </c>
       <c r="F84" t="n">
-        <v>2.675406204071065</v>
+        <v>5.113358368326873</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.36278128293971</v>
+        <v>-7.378098177702622</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.4882983195478</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.72045938844311</v>
+        <v>-21.70219894779519</v>
       </c>
       <c r="F85" t="n">
-        <v>2.832680665972852</v>
+        <v>5.407217015069662</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.488301645240884</v>
+        <v>-7.520974514381344</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.495197409342633</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.72746768884905</v>
+        <v>-22.77287678462896</v>
       </c>
       <c r="F86" t="n">
-        <v>2.662763232313222</v>
+        <v>5.260546809062214</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.123581732969029</v>
+        <v>-7.051346292759228</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.560753023815682</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.47395548033769</v>
+        <v>-23.54477763381183</v>
       </c>
       <c r="F87" t="n">
-        <v>2.573582858053827</v>
+        <v>5.246143794832283</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.992942580478195</v>
+        <v>-7.030152447991152</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.695495969318753</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.75662554392777</v>
+        <v>-24.74593328590982</v>
       </c>
       <c r="F88" t="n">
-        <v>2.623211166759881</v>
+        <v>5.276318745214882</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.932915354166213</v>
+        <v>-6.882406660472983</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.899957894433919</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.83389865102501</v>
+        <v>-25.8961699314889</v>
       </c>
       <c r="F89" t="n">
-        <v>2.25109907610525</v>
+        <v>5.028558544220233</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.787814519363044</v>
+        <v>-6.59124674552073</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.180095149920529</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.33538355045416</v>
+        <v>-27.44068786936064</v>
       </c>
       <c r="F90" t="n">
-        <v>2.249549260928438</v>
+        <v>5.096432626553614</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.745832617396845</v>
+        <v>-6.657879020109913</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.536623814366731</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.00503561908458</v>
+        <v>-29.11895436809057</v>
       </c>
       <c r="F91" t="n">
-        <v>1.972694580068779</v>
+        <v>5.046036743769454</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.853835668093863</v>
+        <v>-6.561766034113233</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.963781930659759</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.58542664484231</v>
+        <v>-30.78859665870726</v>
       </c>
       <c r="F92" t="n">
-        <v>1.787694560224717</v>
+        <v>4.921205731436515</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.990517633072205</v>
+        <v>-6.603889717278571</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.461333858894465</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.2439048882784</v>
+        <v>-32.4323125459087</v>
       </c>
       <c r="F93" t="n">
-        <v>1.667454325339811</v>
+        <v>4.916575841933546</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.09064938271349</v>
+        <v>-6.785447876288325</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.011658369905302</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.16884622847852</v>
+        <v>-34.49676903056654</v>
       </c>
       <c r="F94" t="n">
-        <v>1.348691077616956</v>
+        <v>4.656363340448864</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.056201440329207</v>
+        <v>-6.415834068142688</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.607095882534455</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.35832928574398</v>
+        <v>-36.74230699606461</v>
       </c>
       <c r="F95" t="n">
-        <v>1.021254731712194</v>
+        <v>4.445740035615302</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.112473909367398</v>
+        <v>-6.193110471313511</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.23779612899207</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.22593479791235</v>
+        <v>-38.54773167439613</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8102940854048142</v>
+        <v>4.186534669545205</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.181663134547978</v>
+        <v>-5.953989145452701</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.8771380810576</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.39030058239904</v>
+        <v>-40.89589233853417</v>
       </c>
       <c r="F97" t="n">
-        <v>0.596698264396167</v>
+        <v>3.930076925334315</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.344995075957873</v>
+        <v>-5.848191036852661</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.52037849898389</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.19842643702452</v>
+        <v>-42.72253286216468</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2931789400843532</v>
+        <v>3.663425601805907</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.492305741864887</v>
+        <v>-5.828116774657109</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.13758448076885</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.54208432583815</v>
+        <v>-45.22980625478647</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1132781544024839</v>
+        <v>3.411847086448197</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.586116005627252</v>
+        <v>-5.825550046051978</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.72947746608042</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.96981479898695</v>
+        <v>-47.69514908001417</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.387981941648572</v>
+        <v>2.85935508743874</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.893766540741608</v>
+        <v>-5.908516492583525</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.25646912283516</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.92086954711498</v>
+        <v>-49.58476001209053</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4020916154664885</v>
+        <v>2.851625567582147</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.193892894287783</v>
+        <v>-6.026791346707931</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.74912863712278</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.04542414868438</v>
+        <v>-51.6397574907126</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.5718183778583078</v>
+        <v>2.633302076933193</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.275695757185004</v>
+        <v>-5.966783676423417</v>
       </c>
     </row>
   </sheetData>
